--- a/results/sameSpecies_performance.xlsx
+++ b/results/sameSpecies_performance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="147">
   <si>
     <t>cold-warm</t>
   </si>
@@ -28,7 +28,7 @@
     <t>tool</t>
   </si>
   <si>
-    <t>memory(G)</t>
+    <t>memory(M)</t>
   </si>
   <si>
     <t>total_time</t>
@@ -37,9 +37,6 @@
     <t>alignment_time</t>
   </si>
   <si>
-    <t>memory(M)</t>
-  </si>
-  <si>
     <t>cold</t>
   </si>
   <si>
@@ -55,7 +52,7 @@
     <t>0:13.57</t>
   </si>
   <si>
-    <t>00:00:13</t>
+    <t>00:00:11</t>
   </si>
   <si>
     <t>debga</t>
@@ -115,7 +112,7 @@
     <t>0:09.05</t>
   </si>
   <si>
-    <t>00:00:09</t>
+    <t>00:00:07</t>
   </si>
   <si>
     <t>0:13.66</t>
@@ -142,7 +139,7 @@
     <t>0:15.37</t>
   </si>
   <si>
-    <t>00:00:15</t>
+    <t>00:00:12</t>
   </si>
   <si>
     <t>0:14.91</t>
@@ -166,9 +163,6 @@
     <t>0:15.52</t>
   </si>
   <si>
-    <t>00:00:16</t>
-  </si>
-  <si>
     <t>0:14.80</t>
   </si>
   <si>
@@ -190,9 +184,6 @@
     <t>0:13.81</t>
   </si>
   <si>
-    <t>00:00:14</t>
-  </si>
-  <si>
     <t>0:43.73</t>
   </si>
   <si>
@@ -259,31 +250,31 @@
     <t>0:10.55</t>
   </si>
   <si>
+    <t>0:14.94</t>
+  </si>
+  <si>
+    <t>4.994196</t>
+  </si>
+  <si>
+    <t>0:10.32</t>
+  </si>
+  <si>
+    <t>7.08249</t>
+  </si>
+  <si>
+    <t>0:21.07</t>
+  </si>
+  <si>
+    <t>16:58:38-16:58:52</t>
+  </si>
+  <si>
+    <t>warm</t>
+  </si>
+  <si>
+    <t>0:13.56</t>
+  </si>
+  <si>
     <t>00:00:10</t>
-  </si>
-  <si>
-    <t>0:14.94</t>
-  </si>
-  <si>
-    <t>4.994196</t>
-  </si>
-  <si>
-    <t>0:10.32</t>
-  </si>
-  <si>
-    <t>7.08249</t>
-  </si>
-  <si>
-    <t>0:21.07</t>
-  </si>
-  <si>
-    <t>16:58:38-16:58:52</t>
-  </si>
-  <si>
-    <t>warm</t>
-  </si>
-  <si>
-    <t>0:13.56</t>
   </si>
   <si>
     <t>0:14.55</t>
@@ -812,7 +803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -820,7 +811,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -842,1500 +833,1281 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" t="n">
+        <v>443.04</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="n">
-        <v>453672</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="n">
-        <v>443.04</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10949.02</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="n">
-        <v>11211796</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="n">
-        <v>10949.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1642.88</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="n">
-        <v>1682308</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1642.88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="1" t="n"/>
       <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8139.66</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="n">
-        <v>8335016</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="n">
-        <v>8139.66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="n">
+        <v>441.29</v>
+      </c>
+      <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>451876</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
       <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="n">
-        <v>441.29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="1" t="n"/>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n">
-        <v>11218580</v>
+        <v>10955.64</v>
       </c>
       <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
         <v>25</v>
       </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" t="n">
-        <v>10955.64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="1" t="n"/>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" t="n">
-        <v>1702580</v>
+        <v>1662.68</v>
       </c>
       <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1662.68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="1" t="n"/>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" t="n">
-        <v>8335464</v>
+        <v>8140.1</v>
       </c>
       <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
         <v>29</v>
       </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" t="n">
-        <v>8140.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="n">
+        <v>427.96</v>
+      </c>
+      <c r="F10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="n">
-        <v>438232</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>32</v>
       </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="n">
-        <v>427.96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="1" t="n"/>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" t="n">
-        <v>11208988</v>
+        <v>10946.28</v>
       </c>
       <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
         <v>34</v>
       </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" t="n">
-        <v>10946.28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="1" t="n"/>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" t="n">
-        <v>1619200</v>
+        <v>1581.25</v>
       </c>
       <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
         <v>36</v>
       </c>
-      <c r="G12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1581.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="1" t="n"/>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" t="n">
-        <v>8335212</v>
+        <v>8139.86</v>
       </c>
       <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
         <v>38</v>
       </c>
-      <c r="G13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" t="n">
-        <v>8139.86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="n">
+        <v>441.36</v>
+      </c>
+      <c r="F14" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="n">
-        <v>451948</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>41</v>
       </c>
-      <c r="G14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" t="n">
-        <v>441.36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="1" t="n"/>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" t="n">
-        <v>11209612</v>
+        <v>10946.89</v>
       </c>
       <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
         <v>43</v>
       </c>
-      <c r="G15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" t="n">
-        <v>10946.89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="1" t="n"/>
       <c r="D16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" t="n">
-        <v>1678664</v>
+        <v>1639.32</v>
       </c>
       <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
         <v>45</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1639.32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="1" t="n"/>
       <c r="D17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" t="n">
-        <v>8338300</v>
+        <v>8142.87</v>
       </c>
       <c r="F17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" t="s">
         <v>47</v>
       </c>
-      <c r="G17" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" t="n">
-        <v>8142.87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>443656</v>
+        <v>433.26</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" t="n">
-        <v>433.26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="1" t="n"/>
       <c r="D19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" t="n">
-        <v>11218356</v>
+        <v>10955.43</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" t="n">
-        <v>10955.43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="1" t="n"/>
       <c r="D20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" t="n">
-        <v>1666080</v>
+        <v>1627.03</v>
       </c>
       <c r="F20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1627.03</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="1" t="n"/>
       <c r="D21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" t="n">
-        <v>8338400</v>
+        <v>8142.97</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" t="n">
-        <v>8142.97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>438296</v>
+        <v>428.02</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G22" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" t="n">
-        <v>428.02</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="1" t="n"/>
       <c r="D23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" t="n">
-        <v>11210928</v>
+        <v>10948.17</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G23" t="s">
-        <v>60</v>
-      </c>
-      <c r="H23" t="n">
-        <v>10948.17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="1" t="n"/>
       <c r="D24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>1665404</v>
+        <v>1626.37</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1626.37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="1" t="n"/>
       <c r="D25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25" t="n">
-        <v>8338236</v>
+        <v>8142.81</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G25" t="s">
-        <v>64</v>
-      </c>
-      <c r="H25" t="n">
-        <v>8142.81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E26" t="n">
-        <v>443708</v>
+        <v>433.31</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
-      </c>
-      <c r="H26" t="n">
-        <v>433.31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="n"/>
       <c r="C27" s="1" t="n"/>
       <c r="D27" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27" t="n">
-        <v>11209940</v>
+        <v>10947.21</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
-      </c>
-      <c r="H27" t="n">
-        <v>10947.21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="n"/>
       <c r="C28" s="1" t="n"/>
       <c r="D28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E28" t="n">
-        <v>1701792</v>
+        <v>1661.91</v>
       </c>
       <c r="F28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G28" t="s">
-        <v>70</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1661.91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="1" t="n"/>
       <c r="C29" s="1" t="n"/>
       <c r="D29" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E29" t="n">
-        <v>8336324</v>
+        <v>8140.94</v>
       </c>
       <c r="F29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G29" t="s">
-        <v>72</v>
-      </c>
-      <c r="H29" t="n">
-        <v>8140.94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="1" t="n"/>
       <c r="C30" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>454020</v>
+        <v>443.38</v>
       </c>
       <c r="F30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G30" t="s">
-        <v>50</v>
-      </c>
-      <c r="H30" t="n">
-        <v>443.38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="1" t="n"/>
       <c r="C31" s="1" t="n"/>
       <c r="D31" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E31" t="n">
-        <v>11218564</v>
+        <v>10955.63</v>
       </c>
       <c r="F31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G31" t="s">
-        <v>75</v>
-      </c>
-      <c r="H31" t="n">
-        <v>10955.63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="1" t="n"/>
       <c r="C32" s="1" t="n"/>
       <c r="D32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E32" t="n">
-        <v>1655844</v>
+        <v>1617.04</v>
       </c>
       <c r="F32" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G32" t="s">
-        <v>77</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1617.04</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="n"/>
       <c r="B33" s="1" t="n"/>
       <c r="C33" s="1" t="n"/>
       <c r="D33" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E33" t="n">
-        <v>8336424</v>
+        <v>8141.04</v>
       </c>
       <c r="F33" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G33" t="s">
-        <v>79</v>
-      </c>
-      <c r="H33" t="n">
-        <v>8141.04</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="1" t="n"/>
       <c r="C34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>438416</v>
+        <v>428.14</v>
       </c>
       <c r="F34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s">
-        <v>81</v>
-      </c>
-      <c r="H34" t="n">
-        <v>428.14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="n"/>
       <c r="B35" s="1" t="n"/>
       <c r="C35" s="1" t="n"/>
       <c r="D35" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E35" t="n">
-        <v>11228944</v>
+        <v>10965.77</v>
       </c>
       <c r="F35" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s">
-        <v>83</v>
-      </c>
-      <c r="H35" t="n">
-        <v>10965.77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="1" t="n"/>
       <c r="C36" s="1" t="n"/>
       <c r="D36" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E36" t="n">
-        <v>1618756</v>
+        <v>1580.82</v>
       </c>
       <c r="F36" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G36" t="s">
-        <v>85</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1580.82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="1" t="n"/>
       <c r="C37" s="1" t="n"/>
       <c r="D37" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E37" t="n">
-        <v>8336540</v>
+        <v>8141.15</v>
       </c>
       <c r="F37" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="n">
+        <v>443.08</v>
+      </c>
+      <c r="F38" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" t="s">
         <v>86</v>
       </c>
-      <c r="G37" t="s">
-        <v>87</v>
-      </c>
-      <c r="H37" t="n">
-        <v>8141.15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" t="n">
-        <v>453712</v>
-      </c>
-      <c r="F38" t="s">
-        <v>89</v>
-      </c>
-      <c r="G38" t="s">
-        <v>58</v>
-      </c>
-      <c r="H38" t="n">
-        <v>443.08</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="n"/>
       <c r="B39" s="1" t="n"/>
       <c r="C39" s="1" t="n"/>
       <c r="D39" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39" t="n">
-        <v>11211792</v>
+        <v>10949.02</v>
       </c>
       <c r="F39" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s">
-        <v>91</v>
-      </c>
-      <c r="H39" t="n">
-        <v>10949.02</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="n"/>
       <c r="B40" s="1" t="n"/>
       <c r="C40" s="1" t="n"/>
       <c r="D40" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E40" t="n">
-        <v>1717912</v>
+        <v>1677.65</v>
       </c>
       <c r="F40" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G40" t="s">
-        <v>93</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1677.65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="1" t="n"/>
       <c r="C41" s="1" t="n"/>
       <c r="D41" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E41" t="n">
-        <v>8335104</v>
+        <v>8139.75</v>
       </c>
       <c r="F41" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G41" t="s">
-        <v>95</v>
-      </c>
-      <c r="H41" t="n">
-        <v>8139.75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="1" t="n"/>
       <c r="C42" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>451880</v>
+        <v>441.29</v>
       </c>
       <c r="F42" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" t="n">
-        <v>441.29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="1" t="n"/>
       <c r="C43" s="1" t="n"/>
       <c r="D43" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E43" t="n">
-        <v>11226908</v>
+        <v>10963.78</v>
       </c>
       <c r="F43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G43" t="s">
-        <v>98</v>
-      </c>
-      <c r="H43" t="n">
-        <v>10963.78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="n"/>
       <c r="B44" s="1" t="n"/>
       <c r="C44" s="1" t="n"/>
       <c r="D44" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E44" t="n">
-        <v>1685172</v>
+        <v>1645.68</v>
       </c>
       <c r="F44" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G44" t="s">
-        <v>100</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1645.68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="n"/>
       <c r="B45" s="1" t="n"/>
       <c r="C45" s="1" t="n"/>
       <c r="D45" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E45" t="n">
-        <v>8335132</v>
+        <v>8139.78</v>
       </c>
       <c r="F45" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G45" t="s">
-        <v>102</v>
-      </c>
-      <c r="H45" t="n">
-        <v>8139.78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="1" t="n"/>
       <c r="C46" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E46" t="n">
-        <v>438400</v>
+        <v>428.12</v>
       </c>
       <c r="F46" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
-      </c>
-      <c r="H46" t="n">
-        <v>428.12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="n"/>
       <c r="B47" s="1" t="n"/>
       <c r="C47" s="1" t="n"/>
       <c r="D47" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E47" t="n">
-        <v>11211100</v>
+        <v>10948.34</v>
       </c>
       <c r="F47" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G47" t="s">
-        <v>105</v>
-      </c>
-      <c r="H47" t="n">
-        <v>10948.34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="n"/>
       <c r="B48" s="1" t="n"/>
       <c r="C48" s="1" t="n"/>
       <c r="D48" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E48" t="n">
-        <v>1697404</v>
+        <v>1657.62</v>
       </c>
       <c r="F48" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G48" t="s">
-        <v>107</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1657.62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="n"/>
       <c r="B49" s="1" t="n"/>
       <c r="C49" s="1" t="n"/>
       <c r="D49" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E49" t="n">
-        <v>8335428</v>
+        <v>8140.07</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G49" t="s">
-        <v>108</v>
-      </c>
-      <c r="H49" t="n">
-        <v>8140.07</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="n"/>
       <c r="B50" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E50" t="n">
-        <v>447820</v>
+        <v>437.32</v>
       </c>
       <c r="F50" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G50" t="s">
-        <v>42</v>
-      </c>
-      <c r="H50" t="n">
-        <v>437.32</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="n"/>
       <c r="B51" s="1" t="n"/>
       <c r="C51" s="1" t="n"/>
       <c r="D51" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E51" t="n">
-        <v>11213532</v>
+        <v>10950.71</v>
       </c>
       <c r="F51" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G51" t="s">
-        <v>111</v>
-      </c>
-      <c r="H51" t="n">
-        <v>10950.71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="1" t="n"/>
       <c r="C52" s="1" t="n"/>
       <c r="D52" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E52" t="n">
-        <v>1695656</v>
+        <v>1655.91</v>
       </c>
       <c r="F52" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G52" t="s">
-        <v>113</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1655.91</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="n"/>
       <c r="B53" s="1" t="n"/>
       <c r="C53" s="1" t="n"/>
       <c r="D53" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E53" t="n">
-        <v>8338204</v>
+        <v>8142.78</v>
       </c>
       <c r="F53" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G53" t="s">
-        <v>115</v>
-      </c>
-      <c r="H53" t="n">
-        <v>8142.78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="n"/>
       <c r="B54" s="1" t="n"/>
       <c r="C54" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>443640</v>
+        <v>433.24</v>
       </c>
       <c r="F54" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G54" t="s">
-        <v>58</v>
-      </c>
-      <c r="H54" t="n">
-        <v>433.24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="1" t="n"/>
       <c r="C55" s="1" t="n"/>
       <c r="D55" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E55" t="n">
-        <v>11218268</v>
+        <v>10955.34</v>
       </c>
       <c r="F55" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G55" t="s">
-        <v>118</v>
-      </c>
-      <c r="H55" t="n">
-        <v>10955.34</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="n"/>
       <c r="B56" s="1" t="n"/>
       <c r="C56" s="1" t="n"/>
       <c r="D56" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E56" t="n">
-        <v>1690776</v>
+        <v>1651.15</v>
       </c>
       <c r="F56" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G56" t="s">
-        <v>120</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1651.15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="n"/>
       <c r="B57" s="1" t="n"/>
       <c r="C57" s="1" t="n"/>
       <c r="D57" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E57" t="n">
-        <v>8338232</v>
+        <v>8142.8</v>
       </c>
       <c r="F57" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G57" t="s">
-        <v>122</v>
-      </c>
-      <c r="H57" t="n">
-        <v>8142.8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="n"/>
       <c r="B58" s="1" t="n"/>
       <c r="C58" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>438360</v>
+        <v>428.09</v>
       </c>
       <c r="F58" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G58" t="s">
-        <v>81</v>
-      </c>
-      <c r="H58" t="n">
-        <v>428.09</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="n"/>
       <c r="B59" s="1" t="n"/>
       <c r="C59" s="1" t="n"/>
       <c r="D59" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E59" t="n">
-        <v>11210704</v>
+        <v>10947.95</v>
       </c>
       <c r="F59" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G59" t="s">
-        <v>125</v>
-      </c>
-      <c r="H59" t="n">
-        <v>10947.95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="n"/>
       <c r="B60" s="1" t="n"/>
       <c r="C60" s="1" t="n"/>
       <c r="D60" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E60" t="n">
-        <v>1710324</v>
+        <v>1670.24</v>
       </c>
       <c r="F60" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G60" t="s">
-        <v>127</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1670.24</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="1" t="n"/>
       <c r="C61" s="1" t="n"/>
       <c r="D61" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E61" t="n">
-        <v>8338160</v>
+        <v>8142.73</v>
       </c>
       <c r="F61" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G61" t="s">
-        <v>129</v>
-      </c>
-      <c r="H61" t="n">
-        <v>8142.73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="n"/>
       <c r="B62" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E62" t="n">
-        <v>443672</v>
+        <v>433.27</v>
       </c>
       <c r="F62" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G62" t="s">
-        <v>42</v>
-      </c>
-      <c r="H62" t="n">
-        <v>433.27</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="n"/>
       <c r="B63" s="1" t="n"/>
       <c r="C63" s="1" t="n"/>
       <c r="D63" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E63" t="n">
-        <v>11211880</v>
+        <v>10949.1</v>
       </c>
       <c r="F63" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G63" t="s">
-        <v>132</v>
-      </c>
-      <c r="H63" t="n">
-        <v>10949.1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="1" t="n"/>
       <c r="C64" s="1" t="n"/>
       <c r="D64" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E64" t="n">
-        <v>1688248</v>
+        <v>1648.68</v>
       </c>
       <c r="F64" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G64" t="s">
-        <v>134</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1648.68</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="n"/>
       <c r="B65" s="1" t="n"/>
       <c r="C65" s="1" t="n"/>
       <c r="D65" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E65" t="n">
-        <v>8336508</v>
+        <v>8141.12</v>
       </c>
       <c r="F65" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G65" t="s">
-        <v>136</v>
-      </c>
-      <c r="H65" t="n">
-        <v>8141.12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="n"/>
       <c r="B66" s="1" t="n"/>
       <c r="C66" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>443708</v>
+        <v>433.31</v>
       </c>
       <c r="F66" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G66" t="s">
-        <v>42</v>
-      </c>
-      <c r="H66" t="n">
-        <v>433.31</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="n"/>
       <c r="B67" s="1" t="n"/>
       <c r="C67" s="1" t="n"/>
       <c r="D67" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E67" t="n">
-        <v>11247536</v>
+        <v>10983.92</v>
       </c>
       <c r="F67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G67" t="s">
-        <v>139</v>
-      </c>
-      <c r="H67" t="n">
-        <v>10983.92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="n"/>
       <c r="B68" s="1" t="n"/>
       <c r="C68" s="1" t="n"/>
       <c r="D68" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E68" t="n">
-        <v>1683796</v>
+        <v>1644.33</v>
       </c>
       <c r="F68" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G68" t="s">
-        <v>141</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1644.33</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="n"/>
       <c r="B69" s="1" t="n"/>
       <c r="C69" s="1" t="n"/>
       <c r="D69" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E69" t="n">
-        <v>8336340</v>
+        <v>8140.96</v>
       </c>
       <c r="F69" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G69" t="s">
-        <v>142</v>
-      </c>
-      <c r="H69" t="n">
-        <v>8140.96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="n"/>
       <c r="B70" s="1" t="n"/>
       <c r="C70" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>438432</v>
+        <v>428.16</v>
       </c>
       <c r="F70" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G70" t="s">
-        <v>81</v>
-      </c>
-      <c r="H70" t="n">
-        <v>428.16</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="n"/>
       <c r="B71" s="1" t="n"/>
       <c r="C71" s="1" t="n"/>
       <c r="D71" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E71" t="n">
-        <v>11214544</v>
+        <v>10951.7</v>
       </c>
       <c r="F71" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G71" t="s">
-        <v>145</v>
-      </c>
-      <c r="H71" t="n">
-        <v>10951.7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="n"/>
       <c r="B72" s="1" t="n"/>
       <c r="C72" s="1" t="n"/>
       <c r="D72" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E72" t="n">
-        <v>1698776</v>
+        <v>1658.96</v>
       </c>
       <c r="F72" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G72" t="s">
-        <v>147</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1658.96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="n"/>
       <c r="B73" s="1" t="n"/>
       <c r="C73" s="1" t="n"/>
       <c r="D73" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E73" t="n">
-        <v>8336376</v>
+        <v>8140.99</v>
       </c>
       <c r="F73" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G73" t="s">
-        <v>149</v>
-      </c>
-      <c r="H73" t="n">
-        <v>8140.99</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
